--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.030221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.030221.xlsx_with_dialog_acts.xlsx
@@ -937,12 +937,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1097,12 +1097,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1368,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2417,12 +2417,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2616,12 +2616,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3631,12 +3631,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3673,12 +3673,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3715,12 +3715,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3799,12 +3799,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3925,12 +3925,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4661,12 +4661,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4787,12 +4787,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5417,12 +5417,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6665,12 +6665,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6791,12 +6791,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6875,12 +6875,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7001,12 +7001,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7337,12 +7337,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7375,12 +7375,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7493,12 +7493,12 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7619,12 +7619,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7997,12 +7997,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8081,12 +8081,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8207,12 +8207,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8442,12 +8442,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9100,12 +9100,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9185,12 +9185,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9456,12 +9456,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9532,12 +9532,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9990,12 +9990,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10074,12 +10074,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10112,12 +10112,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10322,12 +10322,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10784,12 +10784,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10979,12 +10979,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11354,12 +11354,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11396,12 +11396,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12026,12 +12026,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12194,12 +12194,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13034,12 +13034,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13076,12 +13076,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14252,12 +14252,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15528,12 +15528,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15873,12 +15873,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15911,12 +15911,12 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15949,12 +15949,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16067,12 +16067,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16568,12 +16568,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
